--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8AFE1A-407F-4578-8F35-15EB9C0E0FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C990FD-DFCA-4AE8-A087-56A5AF502703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,12 +95,84 @@
     <t>多思考解决方案背后的数学原理才是关键。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>多思考是解决问题的关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，学习DOF原理，DOF是模拟相机镜头聚焦的成像过程。在PBRT3第6章有详细解释。
+2，栅格化渲染本质上是不能模拟DOF效果，因为栅格化严重依赖投影矩阵，而投影矩阵只能在针孔相加的条件下成立。而镜头相机投射的射线起点位于有限的镜头区域，而不是相机坐标，所以很容易在光线追踪渲染中应用镜头相机，所生成的DOF是自然而然的。
+3，掌握最原始Lightmap的算法，即Half-life2所使用的技术，该技术在RTR3第十章第3节有简洁的概括。
+4，向量辐照度的初步理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认知学习基础知识，无意间会有重大收获。
+需要仔细观察计算过程中的每一步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1，学习电场以及其相关的知识。电场可能是理解向量辐照度的关键。
+2，辐射度在真空传播时会随着传播距离的增加而衰减，即通常所说的辐射度衰减系数与距离的平方倒数成正比。但实际上理想的定向辐射度在真空是恒定的，并不会随传播距离增大而衰减。这是因为衰减的出现与积分计算以及光源的建模有关，请注意仔细观察公式(29.30)的过程：L在整个过程中始终保持不变，而结果分母出现的R^2是计算立体角时引入的，也就是说，球形光源的半径r保持不变，当着色点靠近光源时，球形光源对着的立体角较大；着色点远离光源，球形光源对着的立体角较小。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>因此衰减是由球型光源所对的立体角引起的，而不是辐射度传播具有此属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也因此不同形状的光源会产生不同的衰减方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，学习Bump Mapping TBN空间的详细构成
+2，ShadowMap构造过程的一种优化方式，源自GPU Pro2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +182,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -422,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -500,6 +581,36 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="138" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C990FD-DFCA-4AE8-A087-56A5AF502703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F10B3F-3C02-4FF4-B123-B0590269D252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,11 @@
   <si>
     <t>1，学习Bump Mapping TBN空间的详细构成
 2，ShadowMap构造过程的一种优化方式，源自GPU Pro2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 明白了蒙特卡洛算法在微面上积分时为什么要假设l=n=r：因为微面的分布必须为几何法线为中心，否则根据BRDF分布生成的法线有可能与几何法线呈大于90°角的情形，在这种情况下，微面法线是不合格的。有了这个假设，预过滤Cube Map则不需要处理以上的情况。
+2,资本的剥削方式：资本家雇佣工人996获取未来的财富；卖房收割韭菜未来的财富。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -611,6 +616,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F10B3F-3C02-4FF4-B123-B0590269D252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A2592B-2A4F-41A7-9B46-DFB12DCBCCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,19 @@
   <si>
     <t>1, 明白了蒙特卡洛算法在微面上积分时为什么要假设l=n=r：因为微面的分布必须为几何法线为中心，否则根据BRDF分布生成的法线有可能与几何法线呈大于90°角的情形，在这种情况下，微面法线是不合格的。有了这个假设，预过滤Cube Map则不需要处理以上的情况。
 2,资本的剥削方式：资本家雇佣工人996获取未来的财富；卖房收割韭菜未来的财富。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，理解马尔科夫链原理：马尔科夫链描述了同一个分布在不同状态下的分布情况以及不同阶段之间的过渡过程。通常研究的概率分布可以认为是单一状态的马尔科夫链，即分布是恒定的，不会发生变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，理解纹理的Mipmap选择过程，该内容在OpenGL规范有详细的公式。
+2，可以将上述思想应用到Crest项目:在更新波浪运动之前，可以先做一个栅格化，在fragment中判断给定层的频率是否满足像素采样率。然后根据结果去掉那些比较高频的层，以提高性能。有待验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点想法：在做Ray-marching的过程中，是否可以把直线路径当作t，而内积分的函数当作关于t的函数，再利用曲线微分几何的一些性质来快速求解积分。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,6 +637,30 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A2592B-2A4F-41A7-9B46-DFB12DCBCCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661FE5A1-BDCA-45A8-B8BE-41391358DD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,14 @@
   </si>
   <si>
     <t>一点想法：在做Ray-marching的过程中，是否可以把直线路径当作t，而内积分的函数当作关于t的函数，再利用曲线微分几何的一些性质来快速求解积分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分理解在屏幕空间计算纹理LOD的原理：需要结合微积分教材第1066页推导雅可比的过程来理解，尤其是斜边向量的定义，这是算法的关键解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要认真的思考算法细节，尤其是数学层面的东西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -661,6 +669,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661FE5A1-BDCA-45A8-B8BE-41391358DD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF749D39-6D2F-4A7A-8DC0-F6923953703F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>需要认真的思考算法细节，尤其是数学层面的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分理解曲面F(x,y,z)=K的gradient为什么是该曲面的法线，并对曲面切向量有了更深一层的理解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要认真思考定理的推导过程，根据过程来理解能极
+大加深认知程度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -680,6 +689,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF749D39-6D2F-4A7A-8DC0-F6923953703F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC45794-CBFC-4408-A155-9BEBB095541E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,10 @@
   <si>
     <t>需要认真思考定理的推导过程，根据过程来理解能极
 大加深认知程度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,充分理解函数F(x,y,z)=K为什么是曲面，因为无约束的函数F(x,y,z)随着变量适当变化可能会填满整个三维空间。当函数F(x,y,z)=k存在约束时，会在空间中形成一个曲面. 2, 理解拉格朗日乘数的几何意义:当函数F(x,y,z)在约束曲面的G(x,y,z)=K变化时，F(x,y,z)也可能是一个曲面，因为(x,y,z)的值约束在有界域中.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -700,6 +704,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC45794-CBFC-4408-A155-9BEBB095541E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D006B0-BD2D-4DB5-A13F-F4E839957BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,27 @@
   </si>
   <si>
     <t>1,充分理解函数F(x,y,z)=K为什么是曲面，因为无约束的函数F(x,y,z)随着变量适当变化可能会填满整个三维空间。当函数F(x,y,z)=k存在约束时，会在空间中形成一个曲面. 2, 理解拉格朗日乘数的几何意义:当函数F(x,y,z)在约束曲面的G(x,y,z)=K变化时，F(x,y,z)也可能是一个曲面，因为(x,y,z)的值约束在有界域中.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，贝塞尔矩形曲面F(u,v)，当u,v任意一个变量是常量时，得到的曲线均为贝塞尔曲线。
+2，贝塞尔曲线的细分算法指的是将一条贝塞尔曲线从中间拆分成两条贝塞尔曲线，然后对子曲线做常数离散化
+3，贝塞尔矩形曲面的细分算法类似，将一片曲面拆分成四个子曲面
+4，贝塞尔三角曲面与控制点所构成的三角形的直观理解不足，因此对这种方式的细分算法也不太能理解，需要更深入的研究。
+5，贝塞尔曲线曲面可以使用古典微分几何分析，并且所有的定理均适用
+6，上述的贝塞尔也可以替换成你spline或其它连续曲线曲面的名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量点乘不满足结合律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，图形学就像数学应用题：提出问题，然后根据定理、命题和推论解出问题，但是不告诉你应用了哪些定理、命题和推论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，图形学研究方向：构建自己的科学体系，发展出一门专门服务于图形学自身的学科，明确问题、解决过程和结果。从而约束研究人员和工程师的研究方向，节约成本和增大产出。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -712,6 +733,38 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D006B0-BD2D-4DB5-A13F-F4E839957BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7ED74-987F-4553-BE5A-207651BD40ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,24 @@
   </si>
   <si>
     <t>1，图形学研究方向：构建自己的科学体系，发展出一门专门服务于图形学自身的学科，明确问题、解决过程和结果。从而约束研究人员和工程师的研究方向，节约成本和增大产出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决“球面上任意三条测地线构成的球面三角形的面积”的问题，解决方案在第四章第五节：高斯邦内定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线和曲面的微分几何：书中所有的证明过程(拓扑除外)均可以给定实例，按照证明过程一步步推导得到命题或定理相应的结果，从而理解证明过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面和球面是唯二的可以从局部空间计算高度场的交点的UV坐标，目前平
+面的情况已经诞生了时差映射，而球面的暂时没有论文，可以根据曲面的
+曲率将局部曲面建模维球体，从而精确计算视差映射。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典曲面的切向量虽然与高维空间中切向量的视觉感觉不一致，但是计算过程和方式是完全相同的，可以放心安全的使用.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -765,6 +783,38 @@
         <v>31</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/每日学习总结.xlsx
+++ b/docs/每日学习总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\StudioProjects\PostProcessingWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7ED74-987F-4553-BE5A-207651BD40ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542D4F07-1403-4381-9450-D8F14ACA64AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>经典曲面的切向量虽然与高维空间中切向量的视觉感觉不一致，但是计算过程和方式是完全相同的，可以放心安全的使用.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在着色点附近绕圆一周采样出高度值,将这些高度值连接在一起构成一个闭合的分段平滑曲线,然后计算由该封闭曲线包围的上半球的面积/半球面积就等于AO,计算过程可以使用格林-斯托克定理,这种方法近似AO要比其它的SSAO效率要高很多.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧的运算过程是DFT的三个函数f,g和h乘积积分,或许可以引入到球谐函数中.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,发现PTR存在问题: 着色点发现n没有考虑进去;  2, 傅里叶级数可以应用在光线在介质中的传输情况, 结合体积雾的思路可以加速算法效率; 牛顿法解决屏幕空间反射.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,6 +328,627 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>906780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>270510</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4365747" cy="544957"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E7DED9-1CF3-4F74-8F1F-8409156727A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6629400" y="16142970"/>
+              <a:ext cx="4365747" cy="544957"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:limLoc m:val="undOvr"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓𝑔h𝑑𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:limLoc m:val="undOvr"/>
+                            <m:subHide m:val="on"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub/>
+                          <m:sup/>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:nary>
+                                  <m:naryPr>
+                                    <m:chr m:val="∑"/>
+                                    <m:subHide m:val="on"/>
+                                    <m:supHide m:val="on"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:naryPr>
+                                  <m:sub/>
+                                  <m:sup/>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑓</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑐</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                  </m:e>
+                                </m:nary>
+                              </m:e>
+                            </m:d>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑔h𝑑𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:nary>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:subHide m:val="on"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub/>
+                          <m:sup/>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑓</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:nary>
+                                  <m:naryPr>
+                                    <m:limLoc m:val="undOvr"/>
+                                    <m:subHide m:val="on"/>
+                                    <m:supHide m:val="on"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:naryPr>
+                                  <m:sub/>
+                                  <m:sup/>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑔h</m:t>
+                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑐</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑑𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:nary>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑁</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐺</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>⨂</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐻</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E7DED9-1CF3-4F74-8F1F-8409156727A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6629400" y="16142970"/>
+              <a:ext cx="4365747" cy="544957"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∫1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓𝑔ℎ𝑑𝑥=∫1▒(∑▒〖𝑓_𝑖 𝑐_𝑖 〗)𝑔ℎ𝑑𝑥=∑▒〖𝑓_𝑖 (∫1▒〖𝑔ℎ𝑐_𝑖 𝑑𝑥〗) 〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=∑▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (1/𝑁 (𝐺</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⨂𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)) 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -815,9 +1448,34 @@
         <v>35</v>
       </c>
     </row>
+    <row r="24" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>